--- a/src/Task/BẢN PHÂN CHIA CÔNG VIỆC.xlsx
+++ b/src/Task/BẢN PHÂN CHIA CÔNG VIỆC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">Header Board Manager Create SideBar </t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -74,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +88,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,41 +180,32 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,36 +521,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="51.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="20" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="35.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="51.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="35.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -576,26 +570,26 @@
       <c r="B2" s="6">
         <v>44938</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -606,26 +600,26 @@
       <c r="B3" s="6">
         <v>44938</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>1</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -636,233 +630,195 @@
       <c r="B4" s="6">
         <v>44938</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
       <c r="J12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="3"/>
     </row>
   </sheetData>

--- a/src/Task/BẢN PHÂN CHIA CÔNG VIỆC.xlsx
+++ b/src/Task/BẢN PHÂN CHIA CÔNG VIỆC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve">Header Board Manager Create SideBar </t>
+  </si>
+  <si>
+    <t>Deploy</t>
+  </si>
+  <si>
+    <t>27/12/2023</t>
+  </si>
+  <si>
+    <t>Quốc Bảo</t>
   </si>
 </sst>
 </file>
@@ -71,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,12 +97,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -160,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,9 +194,6 @@
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -521,16 +521,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="51.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="17" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="35.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="51.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="35.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -654,15 +654,21 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="8"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="J5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -731,7 +737,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="3"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="8"/>
       <c r="I11" s="7"/>
@@ -743,7 +749,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="3"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="8"/>
       <c r="I12" s="7"/>
@@ -755,7 +761,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="3"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
@@ -767,7 +773,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="3"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
       <c r="I14" s="7"/>
@@ -779,7 +785,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="3"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="8"/>
       <c r="I15" s="7"/>
@@ -791,7 +797,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="3"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="8"/>
       <c r="I16" s="7"/>
@@ -803,7 +809,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="3"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="8"/>
       <c r="I17" s="7"/>
@@ -815,7 +821,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="3"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>

--- a/src/Task/BẢN PHÂN CHIA CÔNG VIỆC.xlsx
+++ b/src/Task/BẢN PHÂN CHIA CÔNG VIỆC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -52,16 +52,22 @@
     <t>26/12/2023</t>
   </si>
   <si>
+    <t>Quốc Bảo</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Page Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header Board Manager SideBar </t>
+  </si>
+  <si>
     <t>Phạm Thái Tài</t>
   </si>
   <si>
-    <t>Responsive</t>
-  </si>
-  <si>
-    <t>Page Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header Board Manager Create SideBar </t>
+    <t xml:space="preserve"> Create</t>
   </si>
   <si>
     <t>Deploy</t>
@@ -70,7 +76,7 @@
     <t>27/12/2023</t>
   </si>
   <si>
-    <t>Quốc Bảo</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,6 +194,9 @@
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -521,16 +530,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="51.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="35.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="51.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="35.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -647,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -655,36 +664,58 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44938</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
       <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="8"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3"/>
+      <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
@@ -733,96 +764,96 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="8"/>
       <c r="I11" s="7"/>
       <c r="J11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="8"/>
       <c r="I12" s="7"/>
       <c r="J12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
       <c r="J13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="8"/>
       <c r="I14" s="7"/>
       <c r="J14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="8"/>
       <c r="I15" s="7"/>
       <c r="J15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="8"/>
       <c r="I16" s="7"/>
       <c r="J16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="8"/>
       <c r="I17" s="7"/>
       <c r="J17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
       <c r="J18" s="3"/>

--- a/src/Task/BẢN PHÂN CHIA CÔNG VIỆC.xlsx
+++ b/src/Task/BẢN PHÂN CHIA CÔNG VIỆC.xlsx
@@ -52,22 +52,22 @@
     <t>26/12/2023</t>
   </si>
   <si>
+    <t>Phạm Thái Tài</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Page Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header Board Manager SideBar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create Header</t>
+  </si>
+  <si>
     <t>Quốc Bảo</t>
-  </si>
-  <si>
-    <t>Responsive</t>
-  </si>
-  <si>
-    <t>Page Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header Board Manager SideBar </t>
-  </si>
-  <si>
-    <t>Phạm Thái Tài</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create</t>
   </si>
   <si>
     <t>Deploy</t>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -664,7 +664,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6">
         <v>44938</v>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J6" s="7"/>
     </row>
